--- a/springboot-easypoi/src/main/resources/xlstemplate/businessTemplate.xlsx
+++ b/springboot-easypoi/src/main/resources/xlstemplate/businessTemplate.xlsx
@@ -4,38 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590" activeTab="1"/>
+    <workbookView windowWidth="22845" windowHeight="11670"/>
   </bookViews>
   <sheets>
-    <sheet name="采购结算单" sheetId="2" r:id="rId1"/>
-    <sheet name="销售结算单" sheetId="5" r:id="rId2"/>
+    <sheet name="销售结算单" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
-  <si>
-    <t>铁铁物联科技有限公司采购结算单</t>
-  </si>
-  <si>
-    <t>合同（交货单）号：1910221439386584S01</t>
-  </si>
-  <si>
-    <t>结算单编号：JS20191128001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>XXXX科技有限公司销售结算单</t>
+  </si>
+  <si>
+    <t>合同（交货单）号：{{businessNumber}}</t>
+  </si>
+  <si>
+    <t>结算单编号：{{checkNumber}}</t>
   </si>
   <si>
     <t>销售单位</t>
   </si>
   <si>
-    <t>南京际华三五二一环保科技有限公司</t>
-  </si>
-  <si>
-    <t>购买单位</t>
-  </si>
-  <si>
-    <t>铁铁物联科技有限公司</t>
+    <t>{{sellerUnit}}</t>
+  </si>
+  <si>
+    <t>采购单位</t>
+  </si>
+  <si>
+    <t>{{buyerUnit}}</t>
   </si>
   <si>
     <t>商品分类</t>
@@ -65,46 +64,46 @@
     <t>收货日期</t>
   </si>
   <si>
-    <t>环保</t>
-  </si>
-  <si>
-    <t>SH0167</t>
-  </si>
-  <si>
-    <t>高炉煤气除尘布袋-160mm×8000mm</t>
-  </si>
-  <si>
-    <t>条</t>
-  </si>
-  <si>
-    <t>2019.11.12</t>
+    <t>{{$fe: maplist t.category</t>
+  </si>
+  <si>
+    <t>t.sku</t>
+  </si>
+  <si>
+    <t>t.productName</t>
+  </si>
+  <si>
+    <t>t.unit</t>
+  </si>
+  <si>
+    <t>t.count</t>
+  </si>
+  <si>
+    <t>t.price</t>
+  </si>
+  <si>
+    <t>t.totalMoney</t>
+  </si>
+  <si>
+    <t>t.receiveDate}}</t>
   </si>
   <si>
     <t>总计</t>
   </si>
   <si>
-    <t>发起：                                         运营部：                                           领导签字：</t>
-  </si>
-  <si>
-    <t>盖章：铁铁物联科技有限公司</t>
+    <t>{{totalCount}}</t>
+  </si>
+  <si>
+    <t>{{allMoney}}</t>
+  </si>
+  <si>
+    <t>发起：                                       运营部：                                            领导签字：</t>
+  </si>
+  <si>
+    <t>盖章：XXXX科技有限公司</t>
   </si>
   <si>
     <t>日期：    年    月    日</t>
-  </si>
-  <si>
-    <t>铁铁物联科技有限公司销售结算单</t>
-  </si>
-  <si>
-    <t>合同（交货单）号：{{businessNumber}}</t>
-  </si>
-  <si>
-    <t>采购单位</t>
-  </si>
-  <si>
-    <t>宣化钢铁集团有限责任公司</t>
-  </si>
-  <si>
-    <t>发起：                                       运营部：                                            领导签字：</t>
   </si>
 </sst>
 </file>
@@ -112,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -155,6 +154,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,8 +162,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,54 +243,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,64 +283,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,37 +307,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,132 +487,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -709,51 +708,27 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,17 +748,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,26 +762,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,16 +795,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,137 +822,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,24 +1035,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1448,220 +1388,17 @@
   </sheetPr>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="3" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="41.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="37.625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:9">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:9">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:9">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" ht="29.25" customHeight="1" spans="2:9">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="2:9">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="39.75" customHeight="1" spans="2:9">
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="2:9">
-      <c r="B7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="18">
-        <v>3250</v>
-      </c>
-      <c r="G7" s="33">
-        <v>327.7</v>
-      </c>
-      <c r="H7" s="18">
-        <f>F7*G7</f>
-        <v>1065025</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="2:9">
-      <c r="B8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="34">
-        <v>3250</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="34">
-        <v>1065025</v>
-      </c>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="27.75" customHeight="1" spans="2:9">
-      <c r="B9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="27" customHeight="1" spans="5:9">
-      <c r="E10" s="24"/>
-      <c r="F10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="24.75" customHeight="1" spans="5:9">
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B1:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:I11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
@@ -1670,7 +1407,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:9">
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1702,7 +1439,7 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="2:9">
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1720,14 +1457,14 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="10"/>
@@ -1771,38 +1508,38 @@
       <c r="E7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18">
-        <v>3250</v>
-      </c>
-      <c r="G7" s="18">
-        <v>350.3</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1138475</v>
+      <c r="F7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="2:9">
       <c r="B8" s="19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="18">
-        <v>3250</v>
+      <c r="F8" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="18">
-        <v>1138475</v>
+      <c r="H8" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="30"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="24" customHeight="1" spans="2:9">
       <c r="B9" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1815,7 +1552,7 @@
     <row r="10" s="3" customFormat="1" ht="26.25" customHeight="1" spans="5:9">
       <c r="E10" s="24"/>
       <c r="F10" s="25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1824,7 +1561,7 @@
     <row r="11" s="3" customFormat="1" ht="26.25" customHeight="1" spans="5:9">
       <c r="E11" s="26"/>
       <c r="F11" s="27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
